--- a/VoelkenrathMA/query_results/query_3.xlsx
+++ b/VoelkenrathMA/query_results/query_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_481.252K_100000.0Pa_1.0s_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=45946&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=45947&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_481.252K_100000.0Pa_5.0s_wd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11614&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=45948&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11615&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=45949&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_481.252K_250000.0Pa_1.0s_wd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12706&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46044&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12707&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46045&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,97 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_481.252K_250000.0Pa_5.0s_wd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11662&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46046&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11663&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46047&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_545.448K_100000.0Pa_1.0s_wd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46156&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46157&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_545.448K_100000.0Pa_5.0s_wd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46158&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46159&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_545.448K_250000.0Pa_1.0s_wd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46254&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46255&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_545.448K_250000.0Pa_5.0s_wd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46256&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=46257&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
